--- a/Design/DataTable/StageInfo.xlsx
+++ b/Design/DataTable/StageInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECEF65-F813-4037-9333-CE25A7D1FDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF1344-DE97-4735-BE0F-763E6DD6AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2610" windowWidth="21600" windowHeight="11355" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="11850" yWindow="2790" windowWidth="21600" windowHeight="11355" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>asset&lt;UTexturte2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -886,20 +890,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -907,13 +912,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -926,8 +934,11 @@
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -935,13 +946,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -949,13 +963,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -963,10 +980,16 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>1003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -974,7 +997,30 @@
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>1004</v>
+      </c>
+      <c r="E6">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1005</v>
+      </c>
+      <c r="E7">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/StageInfo.xlsx
+++ b/Design/DataTable/StageInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF1344-DE97-4735-BE0F-763E6DD6AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C2CC76-AD5E-42DB-853F-E00A9BFD17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="2790" windowWidth="21600" windowHeight="11355" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Stage" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RewardEXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,13 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;int32&gt;</t>
+  </si>
+  <si>
+    <t>Reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,67 +606,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -680,205 +675,169 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>101</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
         <v>101</v>
       </c>
-      <c r="L3">
+      <c r="H4">
+        <v>102</v>
+      </c>
+      <c r="J4">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>102</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
         <v>101</v>
       </c>
-      <c r="J4">
+      <c r="H6">
         <v>102</v>
       </c>
-      <c r="L4">
+      <c r="I6">
+        <v>103</v>
+      </c>
+      <c r="J6">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
         <v>101</v>
       </c>
-      <c r="J5">
+      <c r="H7">
         <v>102</v>
       </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>101</v>
-      </c>
-      <c r="J6">
-        <v>102</v>
-      </c>
-      <c r="K6">
+      <c r="I7">
         <v>103</v>
       </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>101</v>
-      </c>
       <c r="J7">
-        <v>102</v>
-      </c>
-      <c r="K7">
-        <v>103</v>
-      </c>
-      <c r="L7">
         <v>100</v>
       </c>
     </row>
@@ -892,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5550D54B-FFEF-418C-BE1D-80F664047FFB}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -912,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
